--- a/formatted/candidates/candidates-5/candidates-positions-wanted-first.xlsx
+++ b/formatted/candidates/candidates-5/candidates-positions-wanted-first.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE04F25-3B9D-B94F-9840-E13B47B7F7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450A97D8-B1A2-AB4A-B72C-2ED8E54CF29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="5140" windowWidth="43520" windowHeight="23680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66834,7 +66834,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B8305" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>